--- a/database/industries/darou/dekapsul/income/yearly/dollar.xlsx
+++ b/database/industries/darou/dekapsul/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A3777-D81A-466F-9247-D6E6177A8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A8E93A-1BAC-4A12-9EEC-CD0843B0836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-05 (5)</t>
-  </si>
-  <si>
     <t>1399-02-01 (9)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-07 (9)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-06 (9)</t>
+  </si>
+  <si>
+    <t>1402-02-06 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>11598</v>
+        <v>6443</v>
       </c>
       <c r="E11" s="13">
-        <v>6443</v>
+        <v>7077</v>
       </c>
       <c r="F11" s="13">
-        <v>7077</v>
+        <v>8134</v>
       </c>
       <c r="G11" s="13">
-        <v>8134</v>
+        <v>13101</v>
       </c>
       <c r="H11" s="13">
-        <v>13101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15632</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-7168</v>
+        <v>-3572</v>
       </c>
       <c r="E12" s="11">
-        <v>-3572</v>
+        <v>-4021</v>
       </c>
       <c r="F12" s="11">
-        <v>-4021</v>
+        <v>-3421</v>
       </c>
       <c r="G12" s="11">
-        <v>-3421</v>
+        <v>-6141</v>
       </c>
       <c r="H12" s="11">
-        <v>-6141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-5866</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>4431</v>
+        <v>2871</v>
       </c>
       <c r="E13" s="15">
-        <v>2871</v>
+        <v>3056</v>
       </c>
       <c r="F13" s="15">
-        <v>3056</v>
+        <v>4713</v>
       </c>
       <c r="G13" s="15">
-        <v>4713</v>
+        <v>6960</v>
       </c>
       <c r="H13" s="15">
-        <v>6960</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1185</v>
+        <v>-522</v>
       </c>
       <c r="E14" s="11">
-        <v>-522</v>
+        <v>-539</v>
       </c>
       <c r="F14" s="11">
-        <v>-539</v>
+        <v>-427</v>
       </c>
       <c r="G14" s="11">
-        <v>-427</v>
+        <v>-568</v>
       </c>
       <c r="H14" s="11">
-        <v>-568</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-657</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,154 +826,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-385</v>
+        <v>-75</v>
       </c>
       <c r="E16" s="11">
-        <v>-75</v>
+        <v>-10</v>
       </c>
       <c r="F16" s="11">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="G16" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>2860</v>
+        <v>2274</v>
       </c>
       <c r="E17" s="15">
-        <v>2274</v>
+        <v>2506</v>
       </c>
       <c r="F17" s="15">
-        <v>2506</v>
+        <v>4289</v>
       </c>
       <c r="G17" s="15">
-        <v>4289</v>
+        <v>6400</v>
       </c>
       <c r="H17" s="15">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-1293</v>
+        <v>-545</v>
       </c>
       <c r="E18" s="11">
-        <v>-545</v>
+        <v>-99</v>
       </c>
       <c r="F18" s="11">
-        <v>-99</v>
+        <v>-158</v>
       </c>
       <c r="G18" s="11">
-        <v>-158</v>
+        <v>-192</v>
       </c>
       <c r="H18" s="11">
-        <v>-192</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>545</v>
+        <v>396</v>
       </c>
       <c r="E19" s="13">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="F19" s="13">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="G19" s="13">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="H19" s="13">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>2112</v>
+        <v>2124</v>
       </c>
       <c r="E20" s="17">
-        <v>2124</v>
+        <v>2515</v>
       </c>
       <c r="F20" s="17">
-        <v>2515</v>
+        <v>4315</v>
       </c>
       <c r="G20" s="17">
-        <v>4315</v>
+        <v>6524</v>
       </c>
       <c r="H20" s="17">
-        <v>6524</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-414</v>
+        <v>-631</v>
       </c>
       <c r="E21" s="13">
-        <v>-631</v>
+        <v>-599</v>
       </c>
       <c r="F21" s="13">
-        <v>-599</v>
+        <v>-959</v>
       </c>
       <c r="G21" s="13">
-        <v>-959</v>
+        <v>-1187</v>
       </c>
       <c r="H21" s="13">
-        <v>-1187</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1698</v>
+        <v>1493</v>
       </c>
       <c r="E22" s="17">
-        <v>1493</v>
+        <v>1916</v>
       </c>
       <c r="F22" s="17">
-        <v>1916</v>
+        <v>3355</v>
       </c>
       <c r="G22" s="17">
-        <v>3355</v>
+        <v>5337</v>
       </c>
       <c r="H22" s="17">
-        <v>5337</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7827</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,28 +994,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1698</v>
+        <v>1493</v>
       </c>
       <c r="E24" s="17">
-        <v>1493</v>
+        <v>1916</v>
       </c>
       <c r="F24" s="17">
-        <v>1916</v>
+        <v>3355</v>
       </c>
       <c r="G24" s="17">
-        <v>3355</v>
+        <v>5337</v>
       </c>
       <c r="H24" s="17">
-        <v>5337</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7827</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,28 +1036,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2956</v>
+        <v>1977</v>
       </c>
       <c r="E26" s="11">
-        <v>1977</v>
+        <v>1559</v>
       </c>
       <c r="F26" s="11">
-        <v>1559</v>
+        <v>885</v>
       </c>
       <c r="G26" s="11">
-        <v>885</v>
+        <v>1137</v>
       </c>
       <c r="H26" s="11">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
